--- a/Code/Results/Cases/Case_3_176/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_176/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.82611019075456</v>
+        <v>12.2785232898965</v>
       </c>
       <c r="C2">
-        <v>7.355172590841391</v>
+        <v>4.743621158237222</v>
       </c>
       <c r="D2">
-        <v>4.789039607082084</v>
+        <v>6.753099799763373</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.50276374681217</v>
+        <v>35.41199441109959</v>
       </c>
       <c r="G2">
-        <v>2.100862378694776</v>
+        <v>3.68519272464414</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.99311044625434</v>
+        <v>11.71356073839947</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.72638154801965</v>
+        <v>19.98262175994419</v>
       </c>
       <c r="N2">
-        <v>15.60903952648076</v>
+        <v>21.80415377711843</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.85142283107003</v>
+        <v>12.06905273458588</v>
       </c>
       <c r="C3">
-        <v>6.852668112000576</v>
+        <v>4.577573048156647</v>
       </c>
       <c r="D3">
-        <v>4.858929685867853</v>
+        <v>6.759434984732452</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>31.32761427978857</v>
+        <v>35.19587580391311</v>
       </c>
       <c r="G3">
-        <v>2.109657007781194</v>
+        <v>3.688173457892162</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.16462149723987</v>
+        <v>11.58343772368868</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.42264575025683</v>
+        <v>19.39895004617322</v>
       </c>
       <c r="N3">
-        <v>15.66326843936893</v>
+        <v>21.82514085331418</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.30241054806135</v>
+        <v>11.94241150446019</v>
       </c>
       <c r="C4">
-        <v>6.528170507099304</v>
+        <v>4.474165827493789</v>
       </c>
       <c r="D4">
-        <v>4.90107402845326</v>
+        <v>6.763291768531627</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.61206938480947</v>
+        <v>35.0702736528912</v>
       </c>
       <c r="G4">
-        <v>2.115167978553247</v>
+        <v>3.690097292112668</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.62908073150493</v>
+        <v>11.50620355071981</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.9604843345174</v>
+        <v>19.03987916047495</v>
       </c>
       <c r="N4">
-        <v>15.70222606450488</v>
+        <v>21.83982097483215</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.07377347921009</v>
+        <v>11.89137578747207</v>
       </c>
       <c r="C5">
-        <v>6.391875221951687</v>
+        <v>4.43173945838295</v>
       </c>
       <c r="D5">
-        <v>4.918098353427633</v>
+        <v>6.764855408377017</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.32219150792101</v>
+        <v>35.02090867331201</v>
       </c>
       <c r="G5">
-        <v>2.117444169069966</v>
+        <v>3.690904910571271</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.40401055800927</v>
+        <v>11.47543631172168</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.35173902744247</v>
+        <v>18.89362315818865</v>
       </c>
       <c r="N5">
-        <v>15.71946166105466</v>
+        <v>21.84625367366913</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.03551663531338</v>
+        <v>11.88293805331103</v>
       </c>
       <c r="C6">
-        <v>6.368996990363524</v>
+        <v>4.424679661174462</v>
       </c>
       <c r="D6">
-        <v>4.920917346488716</v>
+        <v>6.765114572554237</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.27416760667505</v>
+        <v>35.01282246827022</v>
       </c>
       <c r="G6">
-        <v>2.117824034731899</v>
+        <v>3.691040445487944</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.3662228247681</v>
+        <v>11.4703711449807</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.24985352051299</v>
+        <v>18.86934888505744</v>
       </c>
       <c r="N6">
-        <v>15.72240399679749</v>
+        <v>21.84734900303417</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.299346743447</v>
+        <v>11.9417208056379</v>
       </c>
       <c r="C7">
-        <v>6.526348878883381</v>
+        <v>4.47359470505356</v>
       </c>
       <c r="D7">
-        <v>4.901304177721279</v>
+        <v>6.763312888477473</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.60815275989139</v>
+        <v>35.0696004911551</v>
       </c>
       <c r="G7">
-        <v>2.115198549740417</v>
+        <v>3.6901080880968</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.62607312818309</v>
+        <v>11.50578570540379</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.95232794920794</v>
+        <v>19.03790609571439</v>
       </c>
       <c r="N7">
-        <v>15.70245308338784</v>
+        <v>21.83990590557685</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.49425457247434</v>
+        <v>12.20593319490367</v>
       </c>
       <c r="C8">
-        <v>7.185191342957969</v>
+        <v>4.686714376340799</v>
       </c>
       <c r="D8">
-        <v>4.813325146219338</v>
+        <v>6.755291201188463</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.09643533465937</v>
+        <v>35.33602573607359</v>
       </c>
       <c r="G8">
-        <v>2.103873317230672</v>
+        <v>3.68620109884472</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.71296768546114</v>
+        <v>11.66816446911725</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.9413497841545</v>
+        <v>19.78165806641483</v>
       </c>
       <c r="N8">
-        <v>15.62652308653916</v>
+        <v>21.81101737685132</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.77251795928822</v>
+        <v>12.73641519088381</v>
       </c>
       <c r="C9">
-        <v>8.352921813197661</v>
+        <v>5.089994578325393</v>
       </c>
       <c r="D9">
-        <v>4.632385566723782</v>
+        <v>6.739284951444473</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.05627637653927</v>
+        <v>35.91312757518118</v>
       </c>
       <c r="G9">
-        <v>2.082415635172509</v>
+        <v>3.679278437880482</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.63540500482135</v>
+        <v>12.00601923566829</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.4745344568756</v>
+        <v>21.2245865646044</v>
       </c>
       <c r="N9">
-        <v>15.52565609772666</v>
+        <v>21.76863243013549</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.30371860726783</v>
+        <v>13.12931858357977</v>
       </c>
       <c r="C10">
-        <v>9.138740028629911</v>
+        <v>5.373636650518398</v>
       </c>
       <c r="D10">
-        <v>4.490352528547652</v>
+        <v>6.727336878687977</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.25266867569857</v>
+        <v>36.36803946295402</v>
       </c>
       <c r="G10">
-        <v>2.066893450064954</v>
+        <v>3.674637005933335</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.92661093067919</v>
+        <v>12.26375242956079</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.42744269015197</v>
+        <v>22.26274302745233</v>
       </c>
       <c r="N10">
-        <v>15.48558153772268</v>
+        <v>21.74623221569309</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.97113260449322</v>
+        <v>13.30784894317576</v>
       </c>
       <c r="C11">
-        <v>9.481477657004888</v>
+        <v>5.499268085797598</v>
       </c>
       <c r="D11">
-        <v>4.422580502225068</v>
+        <v>6.721855968312056</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.25767325516808</v>
+        <v>36.58114411170765</v>
       </c>
       <c r="G11">
-        <v>2.059823556090721</v>
+        <v>3.672620801012331</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.48924271112795</v>
+        <v>12.38255980803767</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.22860959325887</v>
+        <v>22.72793157821333</v>
       </c>
       <c r="N11">
-        <v>15.4759218977671</v>
+        <v>21.73794870683227</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.21984899313814</v>
+        <v>13.37535290111931</v>
       </c>
       <c r="C12">
-        <v>9.609228556296127</v>
+        <v>5.546306011574533</v>
       </c>
       <c r="D12">
-        <v>4.396330508144543</v>
+        <v>6.719773567121205</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38.63932699979257</v>
+        <v>36.66267728726916</v>
       </c>
       <c r="G12">
-        <v>2.057138547138659</v>
+        <v>3.671870911003135</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.69888460669841</v>
+        <v>12.42773129126066</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.91425793384247</v>
+        <v>22.90289738513713</v>
       </c>
       <c r="N12">
-        <v>15.47360615429511</v>
+        <v>21.73508679965935</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.16645920401374</v>
+        <v>13.36082035562351</v>
       </c>
       <c r="C13">
-        <v>9.581804275818724</v>
+        <v>5.536200082812847</v>
       </c>
       <c r="D13">
-        <v>4.402012486580165</v>
+        <v>6.720222361687633</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>38.55707755439185</v>
+        <v>36.64508135049545</v>
       </c>
       <c r="G13">
-        <v>2.057717280123752</v>
+        <v>3.67203180962519</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.65388384250661</v>
+        <v>12.41799540475858</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.76637055349346</v>
+        <v>22.86527092974791</v>
       </c>
       <c r="N13">
-        <v>15.47404334851942</v>
+        <v>21.73569092584425</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.99167412275437</v>
+        <v>13.31340497480476</v>
       </c>
       <c r="C14">
-        <v>9.492028109079692</v>
+        <v>5.503148916575229</v>
       </c>
       <c r="D14">
-        <v>4.420433534663694</v>
+        <v>6.721684788119307</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.28904858099138</v>
+        <v>36.58783545778553</v>
       </c>
       <c r="G14">
-        <v>2.059602858186903</v>
+        <v>3.672558834985058</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.50655761774132</v>
+        <v>12.3862726969777</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.28492474555823</v>
+        <v>22.74235092656497</v>
       </c>
       <c r="N14">
-        <v>15.47570381852965</v>
+        <v>21.73770774293635</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.88409535821537</v>
+        <v>13.28434635479019</v>
       </c>
       <c r="C15">
-        <v>9.436775012533522</v>
+        <v>5.482833017589928</v>
       </c>
       <c r="D15">
-        <v>4.431636084471021</v>
+        <v>6.72257965803778</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.12502342290887</v>
+        <v>36.55287790058446</v>
       </c>
       <c r="G15">
-        <v>2.060756593075165</v>
+        <v>3.672883422159629</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.41587596250488</v>
+        <v>12.36686401333856</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.99060290748844</v>
+        <v>22.66689889642413</v>
       </c>
       <c r="N15">
-        <v>15.4768991139361</v>
+        <v>21.73897892018801</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.25952928407214</v>
+        <v>13.11764085905617</v>
       </c>
       <c r="C16">
-        <v>9.116051666702688</v>
+        <v>5.365353781829827</v>
       </c>
       <c r="D16">
-        <v>4.494707524063053</v>
+        <v>6.72769412185281</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>37.18712415721879</v>
+        <v>36.35423225223779</v>
       </c>
       <c r="G16">
-        <v>2.067354784053539</v>
+        <v>3.674770677972249</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.88935556513518</v>
+        <v>12.25601585445349</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.31004055057444</v>
+        <v>22.23218428293447</v>
       </c>
       <c r="N16">
-        <v>15.48639443764634</v>
+        <v>21.7468119882882</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.86902970625344</v>
+        <v>13.01526794112699</v>
       </c>
       <c r="C17">
-        <v>8.915580301829655</v>
+        <v>5.292378151175222</v>
       </c>
       <c r="D17">
-        <v>4.53250713300493</v>
+        <v>6.730819748485138</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.6133780712505</v>
+        <v>36.23391220037804</v>
       </c>
       <c r="G17">
-        <v>2.071396128103052</v>
+        <v>3.675952770492777</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.56011134004926</v>
+        <v>12.18838374305954</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.28179416163053</v>
+        <v>21.96356023488591</v>
       </c>
       <c r="N17">
-        <v>15.49448964272014</v>
+        <v>21.75210613860436</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.64167063473603</v>
+        <v>12.95637076143828</v>
       </c>
       <c r="C18">
-        <v>8.798882123110461</v>
+        <v>5.250087040342674</v>
       </c>
       <c r="D18">
-        <v>4.553960575093355</v>
+        <v>6.732613247720066</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.28390359671608</v>
+        <v>36.16529055162157</v>
       </c>
       <c r="G18">
-        <v>2.07372024286431</v>
+        <v>3.67664164527931</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.36840015360503</v>
+        <v>12.14963325110551</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.69041924643739</v>
+        <v>21.8083982812581</v>
       </c>
       <c r="N18">
-        <v>15.49994532895025</v>
+        <v>21.75533059659477</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.5642129326458</v>
+        <v>12.93642886752519</v>
       </c>
       <c r="C19">
-        <v>8.759128612951264</v>
+        <v>5.235715005545777</v>
       </c>
       <c r="D19">
-        <v>4.561178360766953</v>
+        <v>6.733219770861975</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.17243512094432</v>
+        <v>36.14215814748193</v>
       </c>
       <c r="G19">
-        <v>2.074507261367954</v>
+        <v>3.6768764291045</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.30308429609683</v>
+        <v>12.13654003073058</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.49011618703819</v>
+        <v>21.75575591982339</v>
       </c>
       <c r="N19">
-        <v>15.50192666656589</v>
+        <v>21.75645313259932</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.9108829253754</v>
+        <v>13.02616779751237</v>
       </c>
       <c r="C20">
-        <v>8.937064353902826</v>
+        <v>5.30017974745015</v>
       </c>
       <c r="D20">
-        <v>4.528513939459582</v>
+        <v>6.730487465385283</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.67439829565164</v>
+        <v>36.24666047517462</v>
       </c>
       <c r="G20">
-        <v>2.070965999792674</v>
+        <v>3.675826007368153</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.59540100548594</v>
+        <v>12.19556811552417</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.39122817762344</v>
+        <v>21.99222498045038</v>
       </c>
       <c r="N20">
-        <v>15.49354438113014</v>
+        <v>21.75152399441235</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.04312031594062</v>
+        <v>13.3273353412027</v>
       </c>
       <c r="C21">
-        <v>9.518452111710646</v>
+        <v>5.512871740055999</v>
       </c>
       <c r="D21">
-        <v>4.415039970075485</v>
+        <v>6.72125542795661</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.36774321410979</v>
+        <v>36.60462771616771</v>
       </c>
       <c r="G21">
-        <v>2.059049289849427</v>
+        <v>3.67240366637474</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.54992233119811</v>
+        <v>12.39558583533031</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.4262095492842</v>
+        <v>22.77848913762698</v>
       </c>
       <c r="N21">
-        <v>15.47517875023725</v>
+        <v>21.7371078890271</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.75977757990227</v>
+        <v>13.52354206943044</v>
       </c>
       <c r="C22">
-        <v>9.886597760793055</v>
+        <v>5.648736156536179</v>
       </c>
       <c r="D22">
-        <v>4.337370304244728</v>
+        <v>6.715181382973158</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>39.48096744284931</v>
+        <v>36.8434226350095</v>
       </c>
       <c r="G22">
-        <v>2.051211271590443</v>
+        <v>3.670246217153091</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.15393603435372</v>
+        <v>12.52734843347753</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.43293000048596</v>
+        <v>23.28534712016935</v>
       </c>
       <c r="N22">
-        <v>15.47105656611875</v>
+        <v>21.72928865427492</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.37935477882219</v>
+        <v>13.41890303084811</v>
       </c>
       <c r="C23">
-        <v>9.691163863740318</v>
+        <v>5.576524437619439</v>
       </c>
       <c r="D23">
-        <v>4.379199044591397</v>
+        <v>6.718427021162299</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.88610110107594</v>
+        <v>36.71554748997669</v>
       </c>
       <c r="G23">
-        <v>2.055401737359124</v>
+        <v>3.671390466010058</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.83332348415882</v>
+        <v>12.45694327347124</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.3584540220562</v>
+        <v>23.01552215159554</v>
       </c>
       <c r="N23">
-        <v>15.47249681681492</v>
+        <v>21.73331505955697</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.89196999234419</v>
+        <v>13.02124009657133</v>
       </c>
       <c r="C24">
-        <v>8.927355919445084</v>
+        <v>5.296653690093194</v>
       </c>
       <c r="D24">
-        <v>4.53032011892997</v>
+        <v>6.73063770134319</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.64680988510342</v>
+        <v>36.24089525707272</v>
       </c>
       <c r="G24">
-        <v>2.071160458175561</v>
+        <v>3.675883288083268</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.57945410948593</v>
+        <v>12.19231964596887</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.34175397546286</v>
+        <v>21.97926789822037</v>
       </c>
       <c r="N24">
-        <v>15.49396924513585</v>
+        <v>21.75178661876633</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.18178958095999</v>
+        <v>12.59203940423148</v>
       </c>
       <c r="C25">
-        <v>8.049967803397791</v>
+        <v>4.982873650075696</v>
       </c>
       <c r="D25">
-        <v>4.682597593924125</v>
+        <v>6.743646645815053</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>34.25176517082434</v>
+        <v>35.75139385895853</v>
       </c>
       <c r="G25">
-        <v>2.088160136842016</v>
+        <v>3.681072696312212</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.13710204597757</v>
+        <v>11.9127786874237</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.00491877131434</v>
+        <v>20.83724926061207</v>
       </c>
       <c r="N25">
-        <v>15.54733786274279</v>
+        <v>21.77856691566708</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_176/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_176/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.2785232898965</v>
+        <v>13.82611019075459</v>
       </c>
       <c r="C2">
-        <v>4.743621158237222</v>
+        <v>7.355172590841446</v>
       </c>
       <c r="D2">
-        <v>6.753099799763373</v>
+        <v>4.789039607082286</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.41199441109959</v>
+        <v>32.50276374681207</v>
       </c>
       <c r="G2">
-        <v>3.68519272464414</v>
+        <v>2.100862378694775</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.71356073839947</v>
+        <v>11.99311044625436</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.98262175994419</v>
+        <v>29.72638154801956</v>
       </c>
       <c r="N2">
-        <v>21.80415377711843</v>
+        <v>15.60903952648074</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.06905273458588</v>
+        <v>12.85142283107005</v>
       </c>
       <c r="C3">
-        <v>4.577573048156647</v>
+        <v>6.852668112000774</v>
       </c>
       <c r="D3">
-        <v>6.759434984732452</v>
+        <v>4.858929685868053</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.19587580391311</v>
+        <v>31.32761427978858</v>
       </c>
       <c r="G3">
-        <v>3.688173457892162</v>
+        <v>2.109657007781062</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.58343772368868</v>
+        <v>11.16462149723993</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.39895004617322</v>
+        <v>27.42264575025677</v>
       </c>
       <c r="N3">
-        <v>21.82514085331418</v>
+        <v>15.66326843936897</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.94241150446019</v>
+        <v>12.30241054806134</v>
       </c>
       <c r="C4">
-        <v>4.474165827493789</v>
+        <v>6.528170507099365</v>
       </c>
       <c r="D4">
-        <v>6.763291768531627</v>
+        <v>4.901074028453331</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.0702736528912</v>
+        <v>30.61206938480962</v>
       </c>
       <c r="G4">
-        <v>3.690097292112668</v>
+        <v>2.115167978553649</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.50620355071981</v>
+        <v>10.62908073150492</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.03987916047495</v>
+        <v>25.96048433451743</v>
       </c>
       <c r="N4">
-        <v>21.83982097483215</v>
+        <v>15.70222606450497</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.89137578747207</v>
+        <v>12.07377347921008</v>
       </c>
       <c r="C5">
-        <v>4.43173945838295</v>
+        <v>6.391875221951507</v>
       </c>
       <c r="D5">
-        <v>6.764855408377017</v>
+        <v>4.918098353427633</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.02090867331201</v>
+        <v>30.32219150792089</v>
       </c>
       <c r="G5">
-        <v>3.690904910571271</v>
+        <v>2.117444169069965</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.47543631172168</v>
+        <v>10.40401055800928</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.89362315818865</v>
+        <v>25.35173902744245</v>
       </c>
       <c r="N5">
-        <v>21.84625367366913</v>
+        <v>15.71946166105464</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.88293805331103</v>
+        <v>12.03551663531342</v>
       </c>
       <c r="C6">
-        <v>4.424679661174462</v>
+        <v>6.368996990363432</v>
       </c>
       <c r="D6">
-        <v>6.765114572554237</v>
+        <v>4.920917346488778</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.01282246827022</v>
+        <v>30.27416760667523</v>
       </c>
       <c r="G6">
-        <v>3.691040445487944</v>
+        <v>2.117824034731635</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.4703711449807</v>
+        <v>10.36622282476806</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.86934888505744</v>
+        <v>25.249853520513</v>
       </c>
       <c r="N6">
-        <v>21.84734900303417</v>
+        <v>15.72240399679757</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.9417208056379</v>
+        <v>12.29934674344702</v>
       </c>
       <c r="C7">
-        <v>4.47359470505356</v>
+        <v>6.52634887888343</v>
       </c>
       <c r="D7">
-        <v>6.763312888477473</v>
+        <v>4.901304177721146</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.0696004911551</v>
+        <v>30.60815275989136</v>
       </c>
       <c r="G7">
-        <v>3.6901080880968</v>
+        <v>2.115198549740418</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.50578570540379</v>
+        <v>10.62607312818314</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.03790609571439</v>
+        <v>25.95232794920794</v>
       </c>
       <c r="N7">
-        <v>21.83990590557685</v>
+        <v>15.70245308338783</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.20593319490367</v>
+        <v>13.49425457247425</v>
       </c>
       <c r="C8">
-        <v>4.686714376340799</v>
+        <v>7.185191342957956</v>
       </c>
       <c r="D8">
-        <v>6.755291201188463</v>
+        <v>4.813325146219539</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.33602573607359</v>
+        <v>32.09643533465957</v>
       </c>
       <c r="G8">
-        <v>3.68620109884472</v>
+        <v>2.103873317230537</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.66816446911725</v>
+        <v>11.71296768546105</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.78165806641483</v>
+        <v>28.94134978415441</v>
       </c>
       <c r="N8">
-        <v>21.81101737685132</v>
+        <v>15.6265230865393</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.73641519088381</v>
+        <v>15.77251795928836</v>
       </c>
       <c r="C9">
-        <v>5.089994578325393</v>
+        <v>8.352921813197749</v>
       </c>
       <c r="D9">
-        <v>6.739284951444473</v>
+        <v>4.632385566723725</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.91312757518118</v>
+        <v>35.05627637653924</v>
       </c>
       <c r="G9">
-        <v>3.679278437880482</v>
+        <v>2.082415635172768</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.00601923566829</v>
+        <v>13.63540500482149</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.2245865646044</v>
+        <v>34.47453445687554</v>
       </c>
       <c r="N9">
-        <v>21.76863243013549</v>
+        <v>15.52565609772659</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.12931858357977</v>
+        <v>17.30371860726784</v>
       </c>
       <c r="C10">
-        <v>5.373636650518398</v>
+        <v>9.138740028629757</v>
       </c>
       <c r="D10">
-        <v>6.727336878687977</v>
+        <v>4.49035252854758</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>36.36803946295402</v>
+        <v>37.2526686756986</v>
       </c>
       <c r="G10">
-        <v>3.674637005933335</v>
+        <v>2.066893450064823</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.26375242956079</v>
+        <v>14.9266109306791</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.26274302745233</v>
+        <v>38.42744269015196</v>
       </c>
       <c r="N10">
-        <v>21.74623221569309</v>
+        <v>15.48558153772269</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.30784894317576</v>
+        <v>17.97113260449322</v>
       </c>
       <c r="C11">
-        <v>5.499268085797598</v>
+        <v>9.481477657004982</v>
       </c>
       <c r="D11">
-        <v>6.721855968312056</v>
+        <v>4.422580502225135</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.58114411170765</v>
+        <v>38.25767325516811</v>
       </c>
       <c r="G11">
-        <v>3.672620801012331</v>
+        <v>2.059823556090456</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.38255980803767</v>
+        <v>15.48924271112798</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.72793157821333</v>
+        <v>40.22860959325906</v>
       </c>
       <c r="N11">
-        <v>21.73794870683227</v>
+        <v>15.47592189776714</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.37535290111931</v>
+        <v>18.21984899313819</v>
       </c>
       <c r="C12">
-        <v>5.546306011574533</v>
+        <v>9.609228556295999</v>
       </c>
       <c r="D12">
-        <v>6.719773567121205</v>
+        <v>4.396330508144543</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.66267728726916</v>
+        <v>38.63932699979251</v>
       </c>
       <c r="G12">
-        <v>3.671870911003135</v>
+        <v>2.057138547138793</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.42773129126066</v>
+        <v>15.69888460669844</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.90289738513713</v>
+        <v>40.91425793384236</v>
       </c>
       <c r="N12">
-        <v>21.73508679965935</v>
+        <v>15.47360615429506</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.36082035562351</v>
+        <v>18.16645920401366</v>
       </c>
       <c r="C13">
-        <v>5.536200082812847</v>
+        <v>9.581804275818646</v>
       </c>
       <c r="D13">
-        <v>6.720222361687633</v>
+        <v>4.402012486580294</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.64508135049545</v>
+        <v>38.55707755439185</v>
       </c>
       <c r="G13">
-        <v>3.67203180962519</v>
+        <v>2.057717280123882</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.41799540475858</v>
+        <v>15.65388384250654</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.86527092974791</v>
+        <v>40.76637055349326</v>
       </c>
       <c r="N13">
-        <v>21.73569092584425</v>
+        <v>15.47404334851952</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.31340497480476</v>
+        <v>17.99167412275443</v>
       </c>
       <c r="C14">
-        <v>5.503148916575229</v>
+        <v>9.49202810907998</v>
       </c>
       <c r="D14">
-        <v>6.721684788119307</v>
+        <v>4.420433534663627</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.58783545778553</v>
+        <v>38.28904858099131</v>
       </c>
       <c r="G14">
-        <v>3.672558834985058</v>
+        <v>2.059602858187034</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.3862726969777</v>
+        <v>15.50655761774145</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.74235092656497</v>
+        <v>40.28492474555834</v>
       </c>
       <c r="N14">
-        <v>21.73770774293635</v>
+        <v>15.47570381852952</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.28434635479019</v>
+        <v>17.88409535821537</v>
       </c>
       <c r="C15">
-        <v>5.482833017589928</v>
+        <v>9.436775012533777</v>
       </c>
       <c r="D15">
-        <v>6.72257965803778</v>
+        <v>4.431636084470963</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.55287790058446</v>
+        <v>38.12502342290888</v>
       </c>
       <c r="G15">
-        <v>3.672883422159629</v>
+        <v>2.060756593075291</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.36686401333856</v>
+        <v>15.41587596250497</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.66689889642413</v>
+        <v>39.99060290748847</v>
       </c>
       <c r="N15">
-        <v>21.73897892018801</v>
+        <v>15.47689911393608</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.11764085905617</v>
+        <v>17.25952928407218</v>
       </c>
       <c r="C16">
-        <v>5.365353781829827</v>
+        <v>9.116051666702672</v>
       </c>
       <c r="D16">
-        <v>6.72769412185281</v>
+        <v>4.494707524063122</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36.35423225223779</v>
+        <v>37.1871241572188</v>
       </c>
       <c r="G16">
-        <v>3.674770677972249</v>
+        <v>2.067354784053404</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.25601585445349</v>
+        <v>14.88935556513518</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.23218428293447</v>
+        <v>38.31004055057444</v>
       </c>
       <c r="N16">
-        <v>21.7468119882882</v>
+        <v>15.48639443764633</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.01526794112699</v>
+        <v>16.86902970625342</v>
       </c>
       <c r="C17">
-        <v>5.292378151175222</v>
+        <v>8.915580301829655</v>
       </c>
       <c r="D17">
-        <v>6.730819748485138</v>
+        <v>4.53250713300493</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.23391220037804</v>
+        <v>36.61337807125052</v>
       </c>
       <c r="G17">
-        <v>3.675952770492777</v>
+        <v>2.071396128103183</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.18838374305954</v>
+        <v>14.56011134004924</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.96356023488591</v>
+        <v>37.2817941616305</v>
       </c>
       <c r="N17">
-        <v>21.75210613860436</v>
+        <v>15.49448964272016</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.95637076143828</v>
+        <v>16.64167063473607</v>
       </c>
       <c r="C18">
-        <v>5.250087040342674</v>
+        <v>8.798882123110529</v>
       </c>
       <c r="D18">
-        <v>6.732613247720066</v>
+        <v>4.553960575093423</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.16529055162157</v>
+        <v>36.28390359671603</v>
       </c>
       <c r="G18">
-        <v>3.67664164527931</v>
+        <v>2.073720242864311</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.14963325110551</v>
+        <v>14.36840015360506</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.8083982812581</v>
+        <v>36.69041924643739</v>
       </c>
       <c r="N18">
-        <v>21.75533059659477</v>
+        <v>15.49994532895015</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.93642886752519</v>
+        <v>16.56421293264582</v>
       </c>
       <c r="C19">
-        <v>5.235715005545777</v>
+        <v>8.759128612951264</v>
       </c>
       <c r="D19">
-        <v>6.733219770861975</v>
+        <v>4.561178360766753</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.14215814748193</v>
+        <v>36.17243512094422</v>
       </c>
       <c r="G19">
-        <v>3.6768764291045</v>
+        <v>2.074507261367955</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.13654003073058</v>
+        <v>14.30308429609683</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.75575591982339</v>
+        <v>36.49011618703829</v>
       </c>
       <c r="N19">
-        <v>21.75645313259932</v>
+        <v>15.50192666656581</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.02616779751237</v>
+        <v>16.91088292537549</v>
       </c>
       <c r="C20">
-        <v>5.30017974745015</v>
+        <v>8.937064353902919</v>
       </c>
       <c r="D20">
-        <v>6.730487465385283</v>
+        <v>4.528513939459385</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.24666047517462</v>
+        <v>36.67439829565152</v>
       </c>
       <c r="G20">
-        <v>3.675826007368153</v>
+        <v>2.070965999792808</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.19556811552417</v>
+        <v>14.59540100548606</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.99222498045038</v>
+        <v>37.39122817762334</v>
       </c>
       <c r="N20">
-        <v>21.75152399441235</v>
+        <v>15.49354438113</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.3273353412027</v>
+        <v>18.04312031594055</v>
       </c>
       <c r="C21">
-        <v>5.512871740055999</v>
+        <v>9.518452111710582</v>
       </c>
       <c r="D21">
-        <v>6.72125542795661</v>
+        <v>4.415039970075614</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.60462771616771</v>
+        <v>38.36774321410974</v>
       </c>
       <c r="G21">
-        <v>3.67240366637474</v>
+        <v>2.059049289849155</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.39558583533031</v>
+        <v>15.54992233119804</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.77848913762698</v>
+        <v>40.42620954928427</v>
       </c>
       <c r="N21">
-        <v>21.7371078890271</v>
+        <v>15.47517875023727</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.52354206943044</v>
+        <v>18.75977757990226</v>
       </c>
       <c r="C22">
-        <v>5.648736156536179</v>
+        <v>9.886597760793189</v>
       </c>
       <c r="D22">
-        <v>6.715181382973158</v>
+        <v>4.337370304244605</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.8434226350095</v>
+        <v>39.48096744284936</v>
       </c>
       <c r="G22">
-        <v>3.670246217153091</v>
+        <v>2.051211271590849</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.52734843347753</v>
+        <v>16.15393603435376</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.28534712016935</v>
+        <v>42.43293000048601</v>
       </c>
       <c r="N22">
-        <v>21.72928865427492</v>
+        <v>15.47105656611882</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.41890303084811</v>
+        <v>18.37935477882217</v>
       </c>
       <c r="C23">
-        <v>5.576524437619439</v>
+        <v>9.691163863740288</v>
       </c>
       <c r="D23">
-        <v>6.718427021162299</v>
+        <v>4.379199044591584</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.71554748997669</v>
+        <v>38.88610110107587</v>
       </c>
       <c r="G23">
-        <v>3.671390466010058</v>
+        <v>2.055401737358728</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.45694327347124</v>
+        <v>15.83332348415878</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.01552215159554</v>
+        <v>41.35845402205624</v>
       </c>
       <c r="N23">
-        <v>21.73331505955697</v>
+        <v>15.4724968168149</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.02124009657133</v>
+        <v>16.89196999234426</v>
       </c>
       <c r="C24">
-        <v>5.296653690093194</v>
+        <v>8.927355919445148</v>
       </c>
       <c r="D24">
-        <v>6.73063770134319</v>
+        <v>4.530320118930102</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.24089525707272</v>
+        <v>36.64680988510342</v>
       </c>
       <c r="G24">
-        <v>3.675883288083268</v>
+        <v>2.071160458175695</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.19231964596887</v>
+        <v>14.579454109486</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.97926789822037</v>
+        <v>37.34175397546302</v>
       </c>
       <c r="N24">
-        <v>21.75178661876633</v>
+        <v>15.49396924513574</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.59203940423148</v>
+        <v>15.18178958095996</v>
       </c>
       <c r="C25">
-        <v>4.982873650075696</v>
+        <v>8.049967803397868</v>
       </c>
       <c r="D25">
-        <v>6.743646645815053</v>
+        <v>4.682597593924059</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.75139385895853</v>
+        <v>34.25176517082429</v>
       </c>
       <c r="G25">
-        <v>3.681072696312212</v>
+        <v>2.088160136842013</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.9127786874237</v>
+        <v>13.1371020459776</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.83724926061207</v>
+        <v>33.00491877131429</v>
       </c>
       <c r="N25">
-        <v>21.77856691566708</v>
+        <v>15.54733786274272</v>
       </c>
       <c r="O25">
         <v>0</v>
